--- a/Data y gráficos/Gráficos de Tesis/IRF's TV/FINDEX/Findex 10k 4lag.xlsx
+++ b/Data y gráficos/Gráficos de Tesis/IRF's TV/FINDEX/Findex 10k 4lag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30d24c2550ecd34e/Desktop/Cato/Tesis/Tesis-paper/Data y gráficos/Gráficos de Tesis/IRF's TV/FINDEX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{C54F5931-477D-4582-AF5C-5FE73F91D936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC66F59B-9873-40BC-A095-C61AED67065E}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{C54F5931-477D-4582-AF5C-5FE73F91D936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{362292A2-940E-434D-9291-C9E6B73C62A3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{44DAB125-86F0-4F82-BB4E-44D9B051822F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{44DAB125-86F0-4F82-BB4E-44D9B051822F}"/>
   </bookViews>
   <sheets>
     <sheet name="BZSCORE_shock" sheetId="2" r:id="rId1"/>
@@ -641,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06BC97A-4C3D-410B-B641-3AF867B61673}">
-  <dimension ref="A1:BW21"/>
+  <dimension ref="A1:BW23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J33" sqref="J32:J33"/>
+    <sheetView topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="BV21" sqref="BV21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5414,6 +5414,16 @@
       </c>
       <c r="BW21">
         <v>-1.6752747334980257E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f>MAX(B21:BW21)</f>
+        <v>8.1098697808262982E-2</v>
+      </c>
+      <c r="AT23">
+        <f>MIN(AT21:BW21)</f>
+        <v>-2.271823253290025E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5423,10 +5433,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2508E3F4-D2C3-43BD-A7C0-55FAE94651FA}">
-  <dimension ref="A1:BW21"/>
+  <dimension ref="A1:BW23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" activeCellId="5" sqref="A1:XFD1 A2:XFD2 A5:XFD5 A9:XFD9 A17:XFD17 A21:XFD21"/>
+    <sheetView topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BV21" sqref="BV21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10196,6 +10206,18 @@
       </c>
       <c r="BW21">
         <v>5.4517920890568873E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="AG22">
+        <f>MAX(AG21:BW21)</f>
+        <v>5.578201410579664E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f>MIN(C21:AJ21)</f>
+        <v>-4.5696721107341437E-2</v>
       </c>
     </row>
   </sheetData>
@@ -10207,8 +10229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF0D3C6-209E-43DA-9687-08825B2E361E}">
   <dimension ref="A1:BW21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" activeCellId="5" sqref="A1:XFD1 A2:XFD2 A5:XFD5 A9:XFD9 A17:XFD17 A21:XFD21"/>
+    <sheetView topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14987,10 +15009,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A19E6A1-94F9-4750-A8B9-1626CAFDECF6}">
-  <dimension ref="A1:BW21"/>
+  <dimension ref="A1:BW22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BW21"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19760,6 +19782,12 @@
       </c>
       <c r="BW21">
         <v>-0.12066529415818522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f>MAX(B21:BW21)</f>
+        <v>-2.7882401580277414E-2</v>
       </c>
     </row>
   </sheetData>
@@ -19769,10 +19797,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97332CA3-6045-4386-8697-2E6A898D0B62}">
-  <dimension ref="A1:BW21"/>
+  <dimension ref="A1:BW22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AZ21" sqref="AZ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24542,6 +24570,12 @@
       </c>
       <c r="BW21">
         <v>-7.0689697895222336E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f>MAX(B21:BW21)</f>
+        <v>-4.6151910951155964E-2</v>
       </c>
     </row>
   </sheetData>
@@ -24551,10 +24585,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077212D0-6486-4D70-A559-914D4BE18333}">
-  <dimension ref="A1:BW21"/>
+  <dimension ref="A1:BW22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29326,6 +29360,12 @@
         <v>-6.3623797473533417E-2</v>
       </c>
     </row>
+    <row r="22" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f>AVERAGE(B21:BW21)</f>
+        <v>-4.8911336356784331E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
